--- a/biology/Zoologie/Conus_pseudocardinalis/Conus_pseudocardinalis.xlsx
+++ b/biology/Zoologie/Conus_pseudocardinalis/Conus_pseudocardinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus pseudocardinalis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 14 mm et 32 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de l'archipel des Abrolhos, à l'est du Brésil.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce n'est connue que de l’État de Bahia, Brésil. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie préoccupation mineure bien qu'il ait été suggéré qu'elle soit un synonyme de Conus richardbinghami Petuch, 1993[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce n'est connue que de l’État de Bahia, Brésil. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie préoccupation mineure bien qu'il ait été suggéré qu'elle soit un synonyme de Conus richardbinghami Petuch, 1993.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_pseudocardinalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_pseudocardinalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus pseudocardinalis a été décrite pour la première fois en 2004 par le malacologiste brésilien José Coltro[2] dans « Strombus »[3],[4].
-Synonymes
-Conus (Dauciconus) pseudocardinalis Coltro, 2004 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus pseudocardinalis a été décrite pour la première fois en 2004 par le malacologiste brésilien José Coltro dans « Strombus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_pseudocardinalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_pseudocardinalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) pseudocardinalis Coltro, 2004 · appellation alternative
 Poremskiconus pseudocardinalis (Coltro, 2004) · non accepté
 Purpuriconus pseudocardinalis (Coltro, 2004) · non accepté</t>
         </is>
